--- a/其他文件/basedata.xlsx
+++ b/其他文件/basedata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zn/IdeaProjects/MLofAndrew-Ng/其他文件/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956A9AF1-2334-6647-BDFF-C0E7BB4433C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6561772-FB41-504B-AF2F-A6CF42BE5176}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="3380" windowWidth="27840" windowHeight="16940" xr2:uid="{FE7D1014-6C58-B248-A122-9F4E11D0E104}"/>
+    <workbookView xWindow="860" yWindow="3380" windowWidth="27840" windowHeight="21400" xr2:uid="{FE7D1014-6C58-B248-A122-9F4E11D0E104}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -503,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A36B16-4397-DF48-B3CC-7ADDC49F6421}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35:K42"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -954,13 +954,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="7:10">
+    <row r="35" spans="7:12">
       <c r="H35">
         <f>D13*3+D11</f>
         <v>21500</v>
       </c>
     </row>
-    <row r="38" spans="7:10">
+    <row r="37" spans="7:12">
+      <c r="L37">
+        <f>1.06*1.06*1.06</f>
+        <v>1.1910160000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="7:12">
       <c r="I38">
         <f>35645/(D13*3+D11)</f>
         <v>1.6579069767441861</v>
@@ -970,7 +976,7 @@
         <v>1.4050059124950731</v>
       </c>
     </row>
-    <row r="39" spans="7:10">
+    <row r="39" spans="7:12">
       <c r="G39">
         <f>D13*3+D11</f>
         <v>21500</v>
@@ -988,7 +994,7 @@
         <v>1.4052029956641703</v>
       </c>
     </row>
-    <row r="40" spans="7:10">
+    <row r="40" spans="7:12">
       <c r="G40" t="s">
         <v>18</v>
       </c>
@@ -1001,10 +1007,28 @@
         <v>1.4054000788332677</v>
       </c>
     </row>
-    <row r="42" spans="7:10">
+    <row r="42" spans="7:12">
       <c r="H42">
         <f>1.5*1.06*1.06*1.06</f>
         <v>1.7865240000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="7:12">
+      <c r="I44" s="1">
+        <f>1.18*1.4</f>
+        <v>1.6519999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="7:12">
+      <c r="I45">
+        <f>1.18*1.2*1.2</f>
+        <v>1.6991999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="7:12">
+      <c r="I46">
+        <f>1.18*1.2*1.3</f>
+        <v>1.8408</v>
       </c>
     </row>
   </sheetData>

--- a/其他文件/basedata.xlsx
+++ b/其他文件/basedata.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zn/IdeaProjects/MLofAndrew-Ng/其他文件/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6561772-FB41-504B-AF2F-A6CF42BE5176}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDB426C-43F5-9D4D-A242-444D6BCCD538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="3380" windowWidth="27840" windowHeight="21400" xr2:uid="{FE7D1014-6C58-B248-A122-9F4E11D0E104}"/>
+    <workbookView xWindow="2480" yWindow="1080" windowWidth="27180" windowHeight="26960" xr2:uid="{FE7D1014-6C58-B248-A122-9F4E11D0E104}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>cost</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -96,10 +97,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>末日投资提供的加工速度加成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>末日投资提供的工厂仓库量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -108,7 +105,175 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>35650刚好1小时</t>
+    <t>末日投资提供的加工速度加成，实际使用的是1.18*1.405，而非18%+50%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ac1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ac2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ac3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ac4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ac1cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ac2cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ac3cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ac4cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>poison buidings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上路莽夫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>军哥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>em.军哥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰哥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴皇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫弃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南哥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一把火</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北岸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云落</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天南地北</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放牛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信阳红茶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>妮妮娜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mv007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>403,792  大城lev3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201007  周三早9点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>琉云</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出战数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出战率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中位数伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">無沁 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一只小钱钱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打卡需翻倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空白</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>slots</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通道数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -116,7 +281,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -140,8 +308,66 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,8 +380,70 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -163,16 +451,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -188,10 +506,63 @@
     <xf numFmtId="38" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="11" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="12" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="13" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="13" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="7">
     <cellStyle name="40% - 着色 3" xfId="1" builtinId="39"/>
+    <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="适中" xfId="4" builtinId="28"/>
+    <cellStyle name="注释" xfId="5" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -503,15 +874,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A36B16-4397-DF48-B3CC-7ADDC49F6421}">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:T64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -558,11 +930,11 @@
         <v>19</v>
       </c>
       <c r="B4" s="3">
-        <f>B5*1.2</f>
+        <f t="shared" ref="B4:C11" si="0">B5*1.2</f>
         <v>1299526.8001136635</v>
       </c>
       <c r="C4" s="3">
-        <f>C5*1.2</f>
+        <f t="shared" si="0"/>
         <v>1588237.1499294708</v>
       </c>
       <c r="D4" s="3">
@@ -577,11 +949,11 @@
         <v>18</v>
       </c>
       <c r="B5" s="3">
-        <f>B6*1.2</f>
+        <f t="shared" si="0"/>
         <v>1082939.0000947197</v>
       </c>
       <c r="C5" s="3">
-        <f>C6*1.2</f>
+        <f t="shared" si="0"/>
         <v>1323530.9582745591</v>
       </c>
       <c r="D5" s="3">
@@ -596,11 +968,11 @@
         <v>17</v>
       </c>
       <c r="B6" s="3">
-        <f>B7*1.2</f>
+        <f t="shared" si="0"/>
         <v>902449.16674559971</v>
       </c>
       <c r="C6" s="3">
-        <f>C7*1.2</f>
+        <f t="shared" si="0"/>
         <v>1102942.4652287993</v>
       </c>
       <c r="D6" s="3">
@@ -615,11 +987,11 @@
         <v>16</v>
       </c>
       <c r="B7" s="3">
-        <f>B8*1.2</f>
+        <f t="shared" si="0"/>
         <v>752040.97228799982</v>
       </c>
       <c r="C7" s="3">
-        <f>C8*1.2</f>
+        <f t="shared" si="0"/>
         <v>919118.7210239995</v>
       </c>
       <c r="D7" s="3">
@@ -634,11 +1006,11 @@
         <v>15</v>
       </c>
       <c r="B8" s="3">
-        <f>B9*1.2</f>
+        <f t="shared" si="0"/>
         <v>626700.8102399999</v>
       </c>
       <c r="C8" s="3">
-        <f>C9*1.2</f>
+        <f t="shared" si="0"/>
         <v>765932.26751999964</v>
       </c>
       <c r="D8" s="3">
@@ -653,11 +1025,11 @@
         <v>14</v>
       </c>
       <c r="B9" s="3">
-        <f>B10*1.2</f>
+        <f t="shared" si="0"/>
         <v>522250.67519999994</v>
       </c>
       <c r="C9" s="3">
-        <f>C10*1.2</f>
+        <f t="shared" si="0"/>
         <v>638276.88959999976</v>
       </c>
       <c r="D9" s="3">
@@ -672,11 +1044,11 @@
         <v>13</v>
       </c>
       <c r="B10" s="3">
-        <f>B11*1.2</f>
+        <f t="shared" si="0"/>
         <v>435208.89599999995</v>
       </c>
       <c r="C10" s="3">
-        <f>C11*1.2</f>
+        <f t="shared" si="0"/>
         <v>531897.40799999982</v>
       </c>
       <c r="D10" s="3">
@@ -691,11 +1063,11 @@
         <v>12</v>
       </c>
       <c r="B11" s="3">
-        <f>B12*1.2</f>
+        <f t="shared" si="0"/>
         <v>362674.07999999996</v>
       </c>
       <c r="C11" s="3">
-        <f>C12*1.2</f>
+        <f t="shared" si="0"/>
         <v>443247.83999999991</v>
       </c>
       <c r="D11" s="3">
@@ -792,6 +1164,1329 @@
         <v>16000</v>
       </c>
     </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="2">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4">
+        <v>23991</v>
+      </c>
+      <c r="C17" s="3">
+        <v>68679</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="2">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4">
+        <v>13328</v>
+      </c>
+      <c r="C18" s="3">
+        <v>49057</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="2">
+        <v>4</v>
+      </c>
+      <c r="B19" s="4">
+        <v>7404</v>
+      </c>
+      <c r="C19" s="3">
+        <v>35040</v>
+      </c>
+      <c r="D19" s="3">
+        <v>950</v>
+      </c>
+      <c r="E19" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="2">
+        <v>3</v>
+      </c>
+      <c r="B20" s="4">
+        <v>4113</v>
+      </c>
+      <c r="C20" s="3">
+        <v>25029</v>
+      </c>
+      <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="2">
+        <v>2</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2285</v>
+      </c>
+      <c r="C21" s="3">
+        <v>17878</v>
+      </c>
+      <c r="D21" s="3">
+        <v>600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4">
+        <v>685</v>
+      </c>
+      <c r="C22" s="3">
+        <v>685</v>
+      </c>
+      <c r="D22" s="3">
+        <v>450</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>180000</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>100000</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" t="s">
+        <v>24</v>
+      </c>
+      <c r="M37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="5">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" s="6">
+        <v>700</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38" s="7">
+        <v>2</v>
+      </c>
+      <c r="G38" s="6">
+        <v>2200</v>
+      </c>
+      <c r="I38" s="5">
+        <v>1</v>
+      </c>
+      <c r="J38" s="7">
+        <v>2</v>
+      </c>
+      <c r="K38" s="6">
+        <v>4400</v>
+      </c>
+      <c r="M38" s="5">
+        <v>1</v>
+      </c>
+      <c r="N38" s="7">
+        <v>2</v>
+      </c>
+      <c r="O38" s="6">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="5">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" s="6">
+        <v>2500</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2</v>
+      </c>
+      <c r="F39" s="7">
+        <v>3</v>
+      </c>
+      <c r="G39" s="6">
+        <v>7400</v>
+      </c>
+      <c r="I39" s="5">
+        <v>2</v>
+      </c>
+      <c r="J39" s="7">
+        <v>3</v>
+      </c>
+      <c r="K39" s="6">
+        <v>14800</v>
+      </c>
+      <c r="M39" s="5">
+        <v>2</v>
+      </c>
+      <c r="N39" s="7">
+        <v>3</v>
+      </c>
+      <c r="O39" s="6">
+        <v>24600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="5">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40" s="6">
+        <v>4400</v>
+      </c>
+      <c r="E40" s="5">
+        <v>3</v>
+      </c>
+      <c r="F40" s="7">
+        <v>4</v>
+      </c>
+      <c r="G40" s="6">
+        <v>13300</v>
+      </c>
+      <c r="I40" s="5">
+        <v>3</v>
+      </c>
+      <c r="J40" s="7">
+        <v>4</v>
+      </c>
+      <c r="K40" s="6">
+        <v>26600</v>
+      </c>
+      <c r="M40" s="5">
+        <v>3</v>
+      </c>
+      <c r="N40" s="7">
+        <v>4</v>
+      </c>
+      <c r="O40" s="6">
+        <v>44300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="5">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41" s="6">
+        <v>8000</v>
+      </c>
+      <c r="E41" s="5">
+        <v>4</v>
+      </c>
+      <c r="F41" s="7">
+        <v>5</v>
+      </c>
+      <c r="G41" s="6">
+        <v>23900</v>
+      </c>
+      <c r="I41" s="5">
+        <v>4</v>
+      </c>
+      <c r="J41" s="7">
+        <v>5</v>
+      </c>
+      <c r="K41" s="6">
+        <v>47900</v>
+      </c>
+      <c r="M41" s="5">
+        <v>4</v>
+      </c>
+      <c r="N41" s="7">
+        <v>5</v>
+      </c>
+      <c r="O41" s="6">
+        <v>79800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="5">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42" s="6">
+        <v>14400</v>
+      </c>
+      <c r="E42" s="5">
+        <v>5</v>
+      </c>
+      <c r="F42" s="7">
+        <v>6</v>
+      </c>
+      <c r="G42" s="6">
+        <v>43100</v>
+      </c>
+      <c r="I42" s="5">
+        <v>5</v>
+      </c>
+      <c r="J42" s="7">
+        <v>6</v>
+      </c>
+      <c r="K42" s="6">
+        <v>86200</v>
+      </c>
+      <c r="M42" s="5">
+        <v>5</v>
+      </c>
+      <c r="N42" s="7">
+        <v>6</v>
+      </c>
+      <c r="O42" s="6">
+        <v>143600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="5">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43" s="6">
+        <v>25900</v>
+      </c>
+      <c r="E43" s="5">
+        <v>6</v>
+      </c>
+      <c r="F43" s="7">
+        <v>7</v>
+      </c>
+      <c r="G43" s="6">
+        <v>77600</v>
+      </c>
+      <c r="I43" s="5">
+        <v>6</v>
+      </c>
+      <c r="J43" s="7">
+        <v>7</v>
+      </c>
+      <c r="K43" s="6">
+        <v>155100</v>
+      </c>
+      <c r="M43" s="5">
+        <v>6</v>
+      </c>
+      <c r="N43" s="7">
+        <v>7</v>
+      </c>
+      <c r="O43" s="6">
+        <v>258500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="5">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44" s="6">
+        <v>46500</v>
+      </c>
+      <c r="E44" s="5">
+        <v>7</v>
+      </c>
+      <c r="F44" s="7">
+        <v>8</v>
+      </c>
+      <c r="G44" s="6">
+        <v>139600</v>
+      </c>
+      <c r="I44" s="5">
+        <v>7</v>
+      </c>
+      <c r="J44" s="7">
+        <v>8</v>
+      </c>
+      <c r="K44" s="6">
+        <v>279200</v>
+      </c>
+      <c r="M44" s="5">
+        <v>7</v>
+      </c>
+      <c r="N44" s="7">
+        <v>8</v>
+      </c>
+      <c r="O44" s="6">
+        <v>465400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="5">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45" s="6">
+        <v>83800</v>
+      </c>
+      <c r="E45" s="5">
+        <v>8</v>
+      </c>
+      <c r="F45" s="7">
+        <v>9</v>
+      </c>
+      <c r="G45" s="6">
+        <v>251300</v>
+      </c>
+      <c r="I45" s="5">
+        <v>8</v>
+      </c>
+      <c r="J45" s="7">
+        <v>9</v>
+      </c>
+      <c r="K45" s="6">
+        <v>502600</v>
+      </c>
+      <c r="M45" s="5">
+        <v>8</v>
+      </c>
+      <c r="N45" s="7">
+        <v>9</v>
+      </c>
+      <c r="O45" s="6">
+        <v>837700</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="5">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46" s="6">
+        <v>150800</v>
+      </c>
+      <c r="E46" s="5">
+        <v>9</v>
+      </c>
+      <c r="F46" s="7">
+        <v>10</v>
+      </c>
+      <c r="G46" s="6">
+        <v>452300</v>
+      </c>
+      <c r="I46" s="5">
+        <v>9</v>
+      </c>
+      <c r="J46" s="7">
+        <v>10</v>
+      </c>
+      <c r="K46" s="6">
+        <v>904700</v>
+      </c>
+      <c r="M46" s="5">
+        <v>9</v>
+      </c>
+      <c r="N46" s="7">
+        <v>10</v>
+      </c>
+      <c r="O46" s="8">
+        <v>1507800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="5">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>11</v>
+      </c>
+      <c r="C47" s="6">
+        <v>271400</v>
+      </c>
+      <c r="E47" s="5">
+        <v>10</v>
+      </c>
+      <c r="F47" s="7">
+        <v>11</v>
+      </c>
+      <c r="G47" s="6">
+        <v>814100</v>
+      </c>
+      <c r="I47" s="5">
+        <v>10</v>
+      </c>
+      <c r="J47" s="7">
+        <v>11</v>
+      </c>
+      <c r="K47" s="8">
+        <v>1628500</v>
+      </c>
+      <c r="L47" s="9">
+        <f>K48/K47</f>
+        <v>1.2</v>
+      </c>
+      <c r="M47" s="10">
+        <v>10</v>
+      </c>
+      <c r="N47" s="7">
+        <v>11</v>
+      </c>
+      <c r="O47" s="11">
+        <v>2714000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="5">
+        <v>11</v>
+      </c>
+      <c r="B48">
+        <v>12</v>
+      </c>
+      <c r="C48" s="6">
+        <v>325700</v>
+      </c>
+      <c r="E48" s="5">
+        <v>11</v>
+      </c>
+      <c r="F48" s="7">
+        <v>12</v>
+      </c>
+      <c r="G48" s="12">
+        <v>977100</v>
+      </c>
+      <c r="I48" s="10">
+        <v>11</v>
+      </c>
+      <c r="J48" s="7">
+        <v>12</v>
+      </c>
+      <c r="K48" s="8">
+        <v>1954200</v>
+      </c>
+      <c r="L48" s="9">
+        <f t="shared" ref="L48:L56" si="1">K49/K48</f>
+        <v>1.1999795312659911</v>
+      </c>
+      <c r="M48" s="10">
+        <v>11</v>
+      </c>
+      <c r="N48" s="7">
+        <v>12</v>
+      </c>
+      <c r="O48" s="11">
+        <v>3256800</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="5">
+        <v>12</v>
+      </c>
+      <c r="B49">
+        <v>13</v>
+      </c>
+      <c r="C49" s="6">
+        <v>390800</v>
+      </c>
+      <c r="E49" s="10">
+        <v>12</v>
+      </c>
+      <c r="F49" s="7">
+        <v>13</v>
+      </c>
+      <c r="G49" s="12">
+        <v>1172500</v>
+      </c>
+      <c r="I49" s="10">
+        <v>12</v>
+      </c>
+      <c r="J49" s="7">
+        <v>13</v>
+      </c>
+      <c r="K49" s="8">
+        <v>2345000</v>
+      </c>
+      <c r="L49" s="9">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="M49" s="10">
+        <v>12</v>
+      </c>
+      <c r="N49" s="7">
+        <v>13</v>
+      </c>
+      <c r="O49" s="13">
+        <v>3908200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="5">
+        <v>13</v>
+      </c>
+      <c r="B50">
+        <v>14</v>
+      </c>
+      <c r="C50" s="6">
+        <v>469000</v>
+      </c>
+      <c r="E50" s="10">
+        <v>13</v>
+      </c>
+      <c r="F50" s="7">
+        <v>14</v>
+      </c>
+      <c r="G50" s="12">
+        <v>1407000</v>
+      </c>
+      <c r="I50" s="10">
+        <v>13</v>
+      </c>
+      <c r="J50" s="7">
+        <v>14</v>
+      </c>
+      <c r="K50" s="11">
+        <v>2814000</v>
+      </c>
+      <c r="L50" s="9">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="M50" s="10">
+        <v>13</v>
+      </c>
+      <c r="N50" s="7">
+        <v>14</v>
+      </c>
+      <c r="O50" s="14">
+        <v>4689800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="5">
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <v>15</v>
+      </c>
+      <c r="C51" s="6">
+        <v>562800</v>
+      </c>
+      <c r="E51" s="10">
+        <v>14</v>
+      </c>
+      <c r="F51" s="7">
+        <v>15</v>
+      </c>
+      <c r="G51" s="8">
+        <v>1688400</v>
+      </c>
+      <c r="I51" s="10">
+        <v>14</v>
+      </c>
+      <c r="J51" s="7">
+        <v>15</v>
+      </c>
+      <c r="K51" s="11">
+        <v>3376800</v>
+      </c>
+      <c r="L51" s="9">
+        <f t="shared" si="1"/>
+        <v>1.2000118455342337</v>
+      </c>
+      <c r="M51" s="10">
+        <v>14</v>
+      </c>
+      <c r="N51" s="7">
+        <v>15</v>
+      </c>
+      <c r="O51" s="15">
+        <v>5627800</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="5">
+        <v>15</v>
+      </c>
+      <c r="B52">
+        <v>16</v>
+      </c>
+      <c r="C52" s="6">
+        <v>675400</v>
+      </c>
+      <c r="E52" s="10">
+        <v>15</v>
+      </c>
+      <c r="F52" s="7">
+        <v>16</v>
+      </c>
+      <c r="G52" s="8">
+        <v>2026100</v>
+      </c>
+      <c r="H52" s="9">
+        <f>G53/G52</f>
+        <v>1.1999901288189132</v>
+      </c>
+      <c r="I52" s="10">
+        <v>15</v>
+      </c>
+      <c r="J52" s="7">
+        <v>16</v>
+      </c>
+      <c r="K52" s="13">
+        <v>4052200</v>
+      </c>
+      <c r="L52" s="9">
+        <f t="shared" si="1"/>
+        <v>1.1999901288189132</v>
+      </c>
+      <c r="M52" s="10">
+        <v>15</v>
+      </c>
+      <c r="N52" s="7">
+        <v>16</v>
+      </c>
+      <c r="O52" s="15">
+        <v>6753400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="5">
+        <v>16</v>
+      </c>
+      <c r="B53">
+        <v>17</v>
+      </c>
+      <c r="C53" s="6">
+        <v>810500</v>
+      </c>
+      <c r="E53" s="10">
+        <v>16</v>
+      </c>
+      <c r="F53" s="7">
+        <v>17</v>
+      </c>
+      <c r="G53" s="8">
+        <v>2431300</v>
+      </c>
+      <c r="H53" s="9">
+        <f t="shared" ref="H53:H56" si="2">G54/G53</f>
+        <v>1.2000164521038128</v>
+      </c>
+      <c r="I53" s="10">
+        <v>16</v>
+      </c>
+      <c r="J53" s="7">
+        <v>17</v>
+      </c>
+      <c r="K53" s="14">
+        <v>4862600</v>
+      </c>
+      <c r="L53" s="9">
+        <f t="shared" si="1"/>
+        <v>1.1999958869740468</v>
+      </c>
+      <c r="M53" s="10">
+        <v>16</v>
+      </c>
+      <c r="N53" s="7">
+        <v>17</v>
+      </c>
+      <c r="O53" s="16">
+        <v>8104100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="5">
+        <v>17</v>
+      </c>
+      <c r="B54">
+        <v>18</v>
+      </c>
+      <c r="C54" s="12">
+        <v>972600</v>
+      </c>
+      <c r="E54" s="10">
+        <v>17</v>
+      </c>
+      <c r="F54" s="7">
+        <v>18</v>
+      </c>
+      <c r="G54" s="11">
+        <v>2917600</v>
+      </c>
+      <c r="H54" s="9">
+        <f t="shared" si="2"/>
+        <v>1.1999931450507266</v>
+      </c>
+      <c r="I54" s="10">
+        <v>17</v>
+      </c>
+      <c r="J54" s="7">
+        <v>18</v>
+      </c>
+      <c r="K54" s="15">
+        <v>5835100</v>
+      </c>
+      <c r="L54" s="9">
+        <f t="shared" si="1"/>
+        <v>1.1999965724666244</v>
+      </c>
+      <c r="M54" s="10">
+        <v>17</v>
+      </c>
+      <c r="N54" s="7">
+        <v>18</v>
+      </c>
+      <c r="O54" s="16">
+        <v>9724900</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="5">
+        <v>18</v>
+      </c>
+      <c r="B55">
+        <v>19</v>
+      </c>
+      <c r="C55" s="12">
+        <v>1167100</v>
+      </c>
+      <c r="E55" s="10">
+        <v>18</v>
+      </c>
+      <c r="F55" s="7">
+        <v>19</v>
+      </c>
+      <c r="G55" s="13">
+        <v>3501100</v>
+      </c>
+      <c r="H55" s="9">
+        <f t="shared" si="2"/>
+        <v>1.1999942875096399</v>
+      </c>
+      <c r="I55" s="10">
+        <v>18</v>
+      </c>
+      <c r="J55" s="7">
+        <v>19</v>
+      </c>
+      <c r="K55" s="16">
+        <v>7002100</v>
+      </c>
+      <c r="L55" s="9">
+        <f t="shared" si="1"/>
+        <v>1.1999971437140287</v>
+      </c>
+      <c r="M55" s="7">
+        <v>18</v>
+      </c>
+      <c r="N55" s="7">
+        <v>19</v>
+      </c>
+      <c r="O55" s="16">
+        <v>11669900</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="5">
+        <v>19</v>
+      </c>
+      <c r="B56">
+        <v>20</v>
+      </c>
+      <c r="C56" s="8">
+        <v>1400500</v>
+      </c>
+      <c r="E56" s="10">
+        <v>19</v>
+      </c>
+      <c r="F56" s="7">
+        <v>20</v>
+      </c>
+      <c r="G56" s="14">
+        <v>4201300</v>
+      </c>
+      <c r="H56" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="10">
+        <v>19</v>
+      </c>
+      <c r="J56" s="7">
+        <v>20</v>
+      </c>
+      <c r="K56" s="16">
+        <v>8402500</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="7">
+        <v>19</v>
+      </c>
+      <c r="N56" s="7">
+        <v>20</v>
+      </c>
+      <c r="O56" s="16">
+        <v>14003900</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="5">
+        <v>20</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="E57" s="10">
+        <v>20</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="I57" s="10">
+        <v>20</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="M57" s="10">
+        <v>20</v>
+      </c>
+      <c r="O57" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="G60" s="18"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="G64" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79270359-F974-BE48-89D0-3290EEECD5A3}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E3" s="3">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3">
+        <f t="shared" ref="B4:C11" si="0">B5*1.2</f>
+        <v>1299526.8001136635</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>1588237.1499294708</v>
+      </c>
+      <c r="D4" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E4" s="3">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3">
+        <f t="shared" si="0"/>
+        <v>1082939.0000947197</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>1323530.9582745591</v>
+      </c>
+      <c r="D5" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E5" s="3">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3">
+        <f t="shared" si="0"/>
+        <v>902449.16674559971</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>1102942.4652287993</v>
+      </c>
+      <c r="D6" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E6" s="3">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3">
+        <f t="shared" si="0"/>
+        <v>752040.97228799982</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>919118.7210239995</v>
+      </c>
+      <c r="D7" s="3">
+        <v>13750</v>
+      </c>
+      <c r="E7" s="3">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
+        <f t="shared" si="0"/>
+        <v>626700.8102399999</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>765932.26751999964</v>
+      </c>
+      <c r="D8" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
+        <v>522250.67519999994</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>638276.88959999976</v>
+      </c>
+      <c r="D9" s="3">
+        <v>11250</v>
+      </c>
+      <c r="E9" s="3">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
+        <f t="shared" si="0"/>
+        <v>435208.89599999995</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>531897.40799999982</v>
+      </c>
+      <c r="D10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3">
+        <f t="shared" si="0"/>
+        <v>362674.07999999996</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>443247.83999999991</v>
+      </c>
+      <c r="D11" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E11" s="3">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <f>B13*1.2</f>
+        <v>302228.39999999997</v>
+      </c>
+      <c r="C12" s="3">
+        <f>C13*1.4</f>
+        <v>369373.19999999995</v>
+      </c>
+      <c r="D12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>251857</v>
+      </c>
+      <c r="C13" s="3">
+        <v>263838</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E13" s="3">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3">
+        <v>139921</v>
+      </c>
+      <c r="C14" s="3">
+        <v>188456</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4">
+        <v>77733</v>
+      </c>
+      <c r="C15" s="3">
+        <v>134611</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E15" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4">
+        <v>43184</v>
+      </c>
+      <c r="C16" s="3">
+        <v>96151</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="3">
+        <v>16000</v>
+      </c>
+    </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>6</v>
@@ -892,143 +2587,6 @@
       </c>
       <c r="E22" s="3">
         <v>3600</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29">
-        <v>180000</v>
-      </c>
-      <c r="C29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31">
-        <v>100000</v>
-      </c>
-      <c r="C31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="7:12">
-      <c r="H35">
-        <f>D13*3+D11</f>
-        <v>21500</v>
-      </c>
-    </row>
-    <row r="37" spans="7:12">
-      <c r="L37">
-        <f>1.06*1.06*1.06</f>
-        <v>1.1910160000000003</v>
-      </c>
-    </row>
-    <row r="38" spans="7:12">
-      <c r="I38">
-        <f>35645/(D13*3+D11)</f>
-        <v>1.6579069767441861</v>
-      </c>
-      <c r="J38">
-        <f t="shared" ref="J38:J39" si="0">I38/1.18</f>
-        <v>1.4050059124950731</v>
-      </c>
-    </row>
-    <row r="39" spans="7:12">
-      <c r="G39">
-        <f>D13*3+D11</f>
-        <v>21500</v>
-      </c>
-      <c r="H39">
-        <f>G39*(1+B28+B30)</f>
-        <v>33970</v>
-      </c>
-      <c r="I39">
-        <f>35650/(D13*3+D11)</f>
-        <v>1.6581395348837209</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="0"/>
-        <v>1.4052029956641703</v>
-      </c>
-    </row>
-    <row r="40" spans="7:12">
-      <c r="G40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40">
-        <f>35655/(D13*3+D11)</f>
-        <v>1.6583720930232557</v>
-      </c>
-      <c r="J40">
-        <f>I40/1.18</f>
-        <v>1.4054000788332677</v>
-      </c>
-    </row>
-    <row r="42" spans="7:12">
-      <c r="H42">
-        <f>1.5*1.06*1.06*1.06</f>
-        <v>1.7865240000000004</v>
-      </c>
-    </row>
-    <row r="44" spans="7:12">
-      <c r="I44" s="1">
-        <f>1.18*1.4</f>
-        <v>1.6519999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="7:12">
-      <c r="I45">
-        <f>1.18*1.2*1.2</f>
-        <v>1.6991999999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="7:12">
-      <c r="I46">
-        <f>1.18*1.2*1.3</f>
-        <v>1.8408</v>
       </c>
     </row>
   </sheetData>
@@ -1037,17 +2595,301 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79270359-F974-BE48-89D0-3290EEECD5A3}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E7EA21-90CD-9042-BC82-85C9800A6A40}">
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I8"/>
+    <sheetView zoomScale="119" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>75026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>22056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>49394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>57165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>40199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>37708</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>52175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <v>35387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>47560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15">
+        <v>57597</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>55976</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>50162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>51003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21">
+        <v>56333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>46480</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>35271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24">
+        <v>55880</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28">
+        <f>COUNTIF(B3:B24,"&gt;1")</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="20">
+        <f>B28/22</f>
+        <v>0.81818181818181823</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="str">
+        <f>INDEX(A3:A24,MATCH(MAX(B3:B24),B3:B24,0))</f>
+        <v>mv007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31">
+        <f>MAX(B3:B24)</f>
+        <v>75026</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32">
+        <f>MIN(B3:B24)</f>
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33">
+        <f>(B31+B32)/B28</f>
+        <v>4230.333333333333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34">
+        <f>MEDIAN(B3:B24)</f>
+        <v>49778</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B3:B24">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{72438883-8FF8-B042-BF4D-1F99FF25B3F3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="$B$32"/>
+        <cfvo type="num" val="$B$34"/>
+        <cfvo type="num" val="$B$31"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{72438883-8FF8-B042-BF4D-1F99FF25B3F3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B3:B24</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/其他文件/basedata.xlsx
+++ b/其他文件/basedata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zn/IdeaProjects/MLofAndrew-Ng/其他文件/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDB426C-43F5-9D4D-A242-444D6BCCD538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1031FB2E-EC7D-5144-9246-66D56F60257C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="1080" windowWidth="27180" windowHeight="26960" xr2:uid="{FE7D1014-6C58-B248-A122-9F4E11D0E104}"/>
+    <workbookView xWindow="19200" yWindow="20180" windowWidth="27180" windowHeight="18360" xr2:uid="{FE7D1014-6C58-B248-A122-9F4E11D0E104}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A36B16-4397-DF48-B3CC-7ADDC49F6421}">
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2204,7 +2204,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2600,7 +2600,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView zoomScale="119" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/其他文件/basedata.xlsx
+++ b/其他文件/basedata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zn/IdeaProjects/MLofAndrew-Ng/其他文件/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1031FB2E-EC7D-5144-9246-66D56F60257C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA71CE5-B949-0144-8FF4-76022E7846AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="20180" windowWidth="27180" windowHeight="18360" xr2:uid="{FE7D1014-6C58-B248-A122-9F4E11D0E104}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{FE7D1014-6C58-B248-A122-9F4E11D0E104}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
   <si>
     <t>cost</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -105,10 +105,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>末日投资提供的加工速度加成，实际使用的是1.18*1.405，而非18%+50%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ac1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -177,18 +173,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>最后一把火</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>北岸</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>晴空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>云落</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -217,10 +205,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>20201007  周三早9点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>琉云</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -253,18 +237,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">無沁 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一只小钱钱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>打卡需翻倍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>空白</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -274,6 +246,118 @@
   </si>
   <si>
     <t>通道数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>威武</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>506，934 小城lev2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴空(晴）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一只小小钱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>無沁 (沁)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一(把火)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>522,954 关口lev2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(打卡)需翻倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有战斗的伤害总数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被合并</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.07  周三早9点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.08 周四早10点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.08 周四早上 10点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.08周四晚10点半</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>262,850 首府lev5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.09周五早9点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>596,977 小城lev2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>末日投资提供的加工速度加成，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>poisons</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(20,18,14,12)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>factories</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(10,10,10,12)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>病毒所等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工厂等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_resist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标抗性等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spe_provide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专精提供抗性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -281,10 +365,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -361,6 +446,15 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -443,7 +537,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -466,6 +560,141 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -490,7 +719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -551,7 +780,67 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -876,12 +1165,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A36B16-4397-DF48-B3CC-7ADDC49F6421}">
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.5" customWidth="1"/>
   </cols>
@@ -1267,929 +1557,971 @@
       </c>
     </row>
     <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="5">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" s="6">
+        <v>700</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="7">
+        <v>2</v>
+      </c>
+      <c r="G27" s="6">
+        <v>2200</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1</v>
+      </c>
+      <c r="J27" s="7">
+        <v>2</v>
+      </c>
+      <c r="K27" s="6">
+        <v>4400</v>
+      </c>
+      <c r="M27" s="5">
+        <v>1</v>
+      </c>
+      <c r="N27" s="7">
+        <v>2</v>
+      </c>
+      <c r="O27" s="6">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="5">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" s="6">
+        <v>2500</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2</v>
+      </c>
+      <c r="F28" s="7">
+        <v>3</v>
+      </c>
+      <c r="G28" s="6">
+        <v>7400</v>
+      </c>
+      <c r="I28" s="5">
+        <v>2</v>
+      </c>
+      <c r="J28" s="7">
+        <v>3</v>
+      </c>
+      <c r="K28" s="6">
+        <v>14800</v>
+      </c>
+      <c r="M28" s="5">
+        <v>2</v>
+      </c>
+      <c r="N28" s="7">
+        <v>3</v>
+      </c>
+      <c r="O28" s="6">
+        <v>24600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="5">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" s="6">
+        <v>4400</v>
+      </c>
+      <c r="E29" s="5">
+        <v>3</v>
+      </c>
+      <c r="F29" s="7">
+        <v>4</v>
+      </c>
+      <c r="G29" s="6">
+        <v>13300</v>
+      </c>
+      <c r="I29" s="5">
+        <v>3</v>
+      </c>
+      <c r="J29" s="7">
+        <v>4</v>
+      </c>
+      <c r="K29" s="6">
+        <v>26600</v>
+      </c>
+      <c r="M29" s="5">
+        <v>3</v>
+      </c>
+      <c r="N29" s="7">
+        <v>4</v>
+      </c>
+      <c r="O29" s="6">
+        <v>44300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="5">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" s="6">
+        <v>8000</v>
+      </c>
+      <c r="E30" s="5">
+        <v>4</v>
+      </c>
+      <c r="F30" s="7">
+        <v>5</v>
+      </c>
+      <c r="G30" s="6">
+        <v>23900</v>
+      </c>
+      <c r="I30" s="5">
+        <v>4</v>
+      </c>
+      <c r="J30" s="7">
+        <v>5</v>
+      </c>
+      <c r="K30" s="6">
+        <v>47900</v>
+      </c>
+      <c r="M30" s="5">
+        <v>4</v>
+      </c>
+      <c r="N30" s="7">
+        <v>5</v>
+      </c>
+      <c r="O30" s="6">
+        <v>79800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="5">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31" s="6">
+        <v>14400</v>
+      </c>
+      <c r="E31" s="5">
+        <v>5</v>
+      </c>
+      <c r="F31" s="7">
+        <v>6</v>
+      </c>
+      <c r="G31" s="6">
+        <v>43100</v>
+      </c>
+      <c r="I31" s="5">
+        <v>5</v>
+      </c>
+      <c r="J31" s="7">
+        <v>6</v>
+      </c>
+      <c r="K31" s="6">
+        <v>86200</v>
+      </c>
+      <c r="M31" s="5">
+        <v>5</v>
+      </c>
+      <c r="N31" s="7">
+        <v>6</v>
+      </c>
+      <c r="O31" s="6">
+        <v>143600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="5">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32" s="6">
+        <v>25900</v>
+      </c>
+      <c r="E32" s="5">
+        <v>6</v>
+      </c>
+      <c r="F32" s="7">
+        <v>7</v>
+      </c>
+      <c r="G32" s="6">
+        <v>77600</v>
+      </c>
+      <c r="I32" s="5">
+        <v>6</v>
+      </c>
+      <c r="J32" s="7">
+        <v>7</v>
+      </c>
+      <c r="K32" s="6">
+        <v>155100</v>
+      </c>
+      <c r="M32" s="5">
+        <v>6</v>
+      </c>
+      <c r="N32" s="7">
+        <v>7</v>
+      </c>
+      <c r="O32" s="6">
+        <v>258500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="5">
+        <v>7</v>
+      </c>
+      <c r="B33">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
+      <c r="C33" s="6">
+        <v>46500</v>
+      </c>
+      <c r="E33" s="5">
+        <v>7</v>
+      </c>
+      <c r="F33" s="7">
+        <v>8</v>
+      </c>
+      <c r="G33" s="6">
+        <v>139600</v>
+      </c>
+      <c r="I33" s="5">
+        <v>7</v>
+      </c>
+      <c r="J33" s="7">
+        <v>8</v>
+      </c>
+      <c r="K33" s="6">
+        <v>279200</v>
+      </c>
+      <c r="M33" s="5">
+        <v>7</v>
+      </c>
+      <c r="N33" s="7">
+        <v>8</v>
+      </c>
+      <c r="O33" s="6">
+        <v>465400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="5">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="C34" s="6">
+        <v>83800</v>
+      </c>
+      <c r="E34" s="5">
+        <v>8</v>
+      </c>
+      <c r="F34" s="7">
+        <v>9</v>
+      </c>
+      <c r="G34" s="6">
+        <v>251300</v>
+      </c>
+      <c r="I34" s="5">
+        <v>8</v>
+      </c>
+      <c r="J34" s="7">
+        <v>9</v>
+      </c>
+      <c r="K34" s="6">
+        <v>502600</v>
+      </c>
+      <c r="M34" s="5">
+        <v>8</v>
+      </c>
+      <c r="N34" s="7">
+        <v>9</v>
+      </c>
+      <c r="O34" s="6">
+        <v>837700</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="5">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35" s="6">
+        <v>150800</v>
+      </c>
+      <c r="E35" s="5">
+        <v>9</v>
+      </c>
+      <c r="F35" s="7">
+        <v>10</v>
+      </c>
+      <c r="G35" s="6">
+        <v>452300</v>
+      </c>
+      <c r="I35" s="5">
+        <v>9</v>
+      </c>
+      <c r="J35" s="7">
+        <v>10</v>
+      </c>
+      <c r="K35" s="6">
+        <v>904700</v>
+      </c>
+      <c r="M35" s="5">
+        <v>9</v>
+      </c>
+      <c r="N35" s="7">
+        <v>10</v>
+      </c>
+      <c r="O35" s="8">
+        <v>1507800</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="5">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>11</v>
+      </c>
+      <c r="C36" s="6">
+        <v>271400</v>
+      </c>
+      <c r="E36" s="5">
+        <v>10</v>
+      </c>
+      <c r="F36" s="7">
+        <v>11</v>
+      </c>
+      <c r="G36" s="6">
+        <v>814100</v>
+      </c>
+      <c r="I36" s="5">
+        <v>10</v>
+      </c>
+      <c r="J36" s="7">
+        <v>11</v>
+      </c>
+      <c r="K36" s="8">
+        <v>1628500</v>
+      </c>
+      <c r="L36" s="9">
+        <f>K37/K36</f>
+        <v>1.2</v>
+      </c>
+      <c r="M36" s="10">
+        <v>10</v>
+      </c>
+      <c r="N36" s="7">
+        <v>11</v>
+      </c>
+      <c r="O36" s="11">
+        <v>2714000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="5">
+        <v>11</v>
+      </c>
+      <c r="B37">
         <v>12</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C37" s="6">
+        <v>325700</v>
+      </c>
+      <c r="E37" s="5">
         <v>11</v>
       </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29">
-        <v>180000</v>
-      </c>
-      <c r="C29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31">
-        <v>100000</v>
-      </c>
-      <c r="C31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" t="s">
-        <v>24</v>
-      </c>
-      <c r="M37" t="s">
-        <v>21</v>
-      </c>
-      <c r="O37" t="s">
-        <v>25</v>
+      <c r="F37" s="7">
+        <v>12</v>
+      </c>
+      <c r="G37" s="12">
+        <v>977100</v>
+      </c>
+      <c r="I37" s="10">
+        <v>11</v>
+      </c>
+      <c r="J37" s="7">
+        <v>12</v>
+      </c>
+      <c r="K37" s="8">
+        <v>1954200</v>
+      </c>
+      <c r="L37" s="9">
+        <f t="shared" ref="L37:L45" si="1">K38/K37</f>
+        <v>1.1999795312659911</v>
+      </c>
+      <c r="M37" s="10">
+        <v>11</v>
+      </c>
+      <c r="N37" s="7">
+        <v>12</v>
+      </c>
+      <c r="O37" s="11">
+        <v>3256800</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="5">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C38" s="6">
-        <v>700</v>
-      </c>
-      <c r="E38" s="5">
-        <v>1</v>
+        <v>390800</v>
+      </c>
+      <c r="E38" s="10">
+        <v>12</v>
       </c>
       <c r="F38" s="7">
-        <v>2</v>
-      </c>
-      <c r="G38" s="6">
-        <v>2200</v>
-      </c>
-      <c r="I38" s="5">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="G38" s="12">
+        <v>1172500</v>
+      </c>
+      <c r="I38" s="10">
+        <v>12</v>
       </c>
       <c r="J38" s="7">
-        <v>2</v>
-      </c>
-      <c r="K38" s="6">
-        <v>4400</v>
-      </c>
-      <c r="M38" s="5">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="K38" s="8">
+        <v>2345000</v>
+      </c>
+      <c r="L38" s="9">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="M38" s="10">
+        <v>12</v>
       </c>
       <c r="N38" s="7">
-        <v>2</v>
-      </c>
-      <c r="O38" s="6">
-        <v>7400</v>
+        <v>13</v>
+      </c>
+      <c r="O38" s="13">
+        <v>3908200</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="5">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C39" s="6">
-        <v>2500</v>
-      </c>
-      <c r="E39" s="5">
-        <v>2</v>
+        <v>469000</v>
+      </c>
+      <c r="E39" s="10">
+        <v>13</v>
       </c>
       <c r="F39" s="7">
-        <v>3</v>
-      </c>
-      <c r="G39" s="6">
-        <v>7400</v>
-      </c>
-      <c r="I39" s="5">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="G39" s="12">
+        <v>1407000</v>
+      </c>
+      <c r="I39" s="10">
+        <v>13</v>
       </c>
       <c r="J39" s="7">
-        <v>3</v>
-      </c>
-      <c r="K39" s="6">
-        <v>14800</v>
-      </c>
-      <c r="M39" s="5">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="K39" s="11">
+        <v>2814000</v>
+      </c>
+      <c r="L39" s="9">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="M39" s="10">
+        <v>13</v>
       </c>
       <c r="N39" s="7">
-        <v>3</v>
-      </c>
-      <c r="O39" s="6">
-        <v>24600</v>
+        <v>14</v>
+      </c>
+      <c r="O39" s="14">
+        <v>4689800</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="5">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C40" s="6">
-        <v>4400</v>
-      </c>
-      <c r="E40" s="5">
-        <v>3</v>
+        <v>562800</v>
+      </c>
+      <c r="E40" s="10">
+        <v>14</v>
       </c>
       <c r="F40" s="7">
-        <v>4</v>
-      </c>
-      <c r="G40" s="6">
-        <v>13300</v>
-      </c>
-      <c r="I40" s="5">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="G40" s="8">
+        <v>1688400</v>
+      </c>
+      <c r="I40" s="10">
+        <v>14</v>
       </c>
       <c r="J40" s="7">
-        <v>4</v>
-      </c>
-      <c r="K40" s="6">
-        <v>26600</v>
-      </c>
-      <c r="M40" s="5">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="K40" s="11">
+        <v>3376800</v>
+      </c>
+      <c r="L40" s="9">
+        <f t="shared" si="1"/>
+        <v>1.2000118455342337</v>
+      </c>
+      <c r="M40" s="10">
+        <v>14</v>
       </c>
       <c r="N40" s="7">
-        <v>4</v>
-      </c>
-      <c r="O40" s="6">
-        <v>44300</v>
+        <v>15</v>
+      </c>
+      <c r="O40" s="15">
+        <v>5627800</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="5">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C41" s="6">
-        <v>8000</v>
-      </c>
-      <c r="E41" s="5">
-        <v>4</v>
+        <v>675400</v>
+      </c>
+      <c r="E41" s="10">
+        <v>15</v>
       </c>
       <c r="F41" s="7">
-        <v>5</v>
-      </c>
-      <c r="G41" s="6">
-        <v>23900</v>
-      </c>
-      <c r="I41" s="5">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="G41" s="8">
+        <v>2026100</v>
+      </c>
+      <c r="H41" s="9">
+        <f>G42/G41</f>
+        <v>1.1999901288189132</v>
+      </c>
+      <c r="I41" s="10">
+        <v>15</v>
       </c>
       <c r="J41" s="7">
-        <v>5</v>
-      </c>
-      <c r="K41" s="6">
-        <v>47900</v>
-      </c>
-      <c r="M41" s="5">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="K41" s="13">
+        <v>4052200</v>
+      </c>
+      <c r="L41" s="9">
+        <f t="shared" si="1"/>
+        <v>1.1999901288189132</v>
+      </c>
+      <c r="M41" s="10">
+        <v>15</v>
       </c>
       <c r="N41" s="7">
-        <v>5</v>
-      </c>
-      <c r="O41" s="6">
-        <v>79800</v>
+        <v>16</v>
+      </c>
+      <c r="O41" s="15">
+        <v>6753400</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="5">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C42" s="6">
-        <v>14400</v>
-      </c>
-      <c r="E42" s="5">
-        <v>5</v>
+        <v>810500</v>
+      </c>
+      <c r="E42" s="10">
+        <v>16</v>
       </c>
       <c r="F42" s="7">
-        <v>6</v>
-      </c>
-      <c r="G42" s="6">
-        <v>43100</v>
-      </c>
-      <c r="I42" s="5">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="G42" s="8">
+        <v>2431300</v>
+      </c>
+      <c r="H42" s="9">
+        <f t="shared" ref="H42:H45" si="2">G43/G42</f>
+        <v>1.2000164521038128</v>
+      </c>
+      <c r="I42" s="10">
+        <v>16</v>
       </c>
       <c r="J42" s="7">
-        <v>6</v>
-      </c>
-      <c r="K42" s="6">
-        <v>86200</v>
-      </c>
-      <c r="M42" s="5">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="K42" s="14">
+        <v>4862600</v>
+      </c>
+      <c r="L42" s="9">
+        <f t="shared" si="1"/>
+        <v>1.1999958869740468</v>
+      </c>
+      <c r="M42" s="10">
+        <v>16</v>
       </c>
       <c r="N42" s="7">
-        <v>6</v>
-      </c>
-      <c r="O42" s="6">
-        <v>143600</v>
+        <v>17</v>
+      </c>
+      <c r="O42" s="16">
+        <v>8104100</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="5">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B43">
-        <v>7</v>
-      </c>
-      <c r="C43" s="6">
-        <v>25900</v>
-      </c>
-      <c r="E43" s="5">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="C43" s="12">
+        <v>972600</v>
+      </c>
+      <c r="E43" s="10">
+        <v>17</v>
       </c>
       <c r="F43" s="7">
-        <v>7</v>
-      </c>
-      <c r="G43" s="6">
-        <v>77600</v>
-      </c>
-      <c r="I43" s="5">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="G43" s="11">
+        <v>2917600</v>
+      </c>
+      <c r="H43" s="9">
+        <f t="shared" si="2"/>
+        <v>1.1999931450507266</v>
+      </c>
+      <c r="I43" s="10">
+        <v>17</v>
       </c>
       <c r="J43" s="7">
-        <v>7</v>
-      </c>
-      <c r="K43" s="6">
-        <v>155100</v>
-      </c>
-      <c r="M43" s="5">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="K43" s="15">
+        <v>5835100</v>
+      </c>
+      <c r="L43" s="9">
+        <f t="shared" si="1"/>
+        <v>1.1999965724666244</v>
+      </c>
+      <c r="M43" s="10">
+        <v>17</v>
       </c>
       <c r="N43" s="7">
-        <v>7</v>
-      </c>
-      <c r="O43" s="6">
-        <v>258500</v>
+        <v>18</v>
+      </c>
+      <c r="O43" s="16">
+        <v>9724900</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="5">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B44">
-        <v>8</v>
-      </c>
-      <c r="C44" s="6">
-        <v>46500</v>
-      </c>
-      <c r="E44" s="5">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="C44" s="12">
+        <v>1167100</v>
+      </c>
+      <c r="E44" s="10">
+        <v>18</v>
       </c>
       <c r="F44" s="7">
-        <v>8</v>
-      </c>
-      <c r="G44" s="6">
-        <v>139600</v>
-      </c>
-      <c r="I44" s="5">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="G44" s="13">
+        <v>3501100</v>
+      </c>
+      <c r="H44" s="9">
+        <f t="shared" si="2"/>
+        <v>1.1999942875096399</v>
+      </c>
+      <c r="I44" s="10">
+        <v>18</v>
       </c>
       <c r="J44" s="7">
-        <v>8</v>
-      </c>
-      <c r="K44" s="6">
-        <v>279200</v>
-      </c>
-      <c r="M44" s="5">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="K44" s="16">
+        <v>7002100</v>
+      </c>
+      <c r="L44" s="9">
+        <f t="shared" si="1"/>
+        <v>1.1999971437140287</v>
+      </c>
+      <c r="M44" s="7">
+        <v>18</v>
       </c>
       <c r="N44" s="7">
-        <v>8</v>
-      </c>
-      <c r="O44" s="6">
-        <v>465400</v>
+        <v>19</v>
+      </c>
+      <c r="O44" s="16">
+        <v>11669900</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="5">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B45">
-        <v>9</v>
-      </c>
-      <c r="C45" s="6">
-        <v>83800</v>
-      </c>
-      <c r="E45" s="5">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="C45" s="8">
+        <v>1400500</v>
+      </c>
+      <c r="E45" s="10">
+        <v>19</v>
       </c>
       <c r="F45" s="7">
-        <v>9</v>
-      </c>
-      <c r="G45" s="6">
-        <v>251300</v>
-      </c>
-      <c r="I45" s="5">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="G45" s="14">
+        <v>4201300</v>
+      </c>
+      <c r="H45" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="10">
+        <v>19</v>
       </c>
       <c r="J45" s="7">
-        <v>9</v>
-      </c>
-      <c r="K45" s="6">
-        <v>502600</v>
-      </c>
-      <c r="M45" s="5">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="K45" s="16">
+        <v>8402500</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="7">
+        <v>19</v>
       </c>
       <c r="N45" s="7">
-        <v>9</v>
-      </c>
-      <c r="O45" s="6">
-        <v>837700</v>
+        <v>20</v>
+      </c>
+      <c r="O45" s="16">
+        <v>14003900</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="5">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="E46" s="10">
+        <v>20</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="I46" s="10">
+        <v>20</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="M46" s="10">
+        <v>20</v>
+      </c>
+      <c r="O46" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>180000</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B46">
+      <c r="B53" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="6">
-        <v>150800</v>
-      </c>
-      <c r="E46" s="5">
-        <v>9</v>
-      </c>
-      <c r="F46" s="7">
-        <v>10</v>
-      </c>
-      <c r="G46" s="6">
-        <v>452300</v>
-      </c>
-      <c r="I46" s="5">
-        <v>9</v>
-      </c>
-      <c r="J46" s="7">
-        <v>10</v>
-      </c>
-      <c r="K46" s="6">
-        <v>904700</v>
-      </c>
-      <c r="M46" s="5">
-        <v>9</v>
-      </c>
-      <c r="N46" s="7">
-        <v>10</v>
-      </c>
-      <c r="O46" s="8">
-        <v>1507800</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="5">
-        <v>10</v>
-      </c>
-      <c r="B47">
-        <v>11</v>
-      </c>
-      <c r="C47" s="6">
-        <v>271400</v>
-      </c>
-      <c r="E47" s="5">
-        <v>10</v>
-      </c>
-      <c r="F47" s="7">
-        <v>11</v>
-      </c>
-      <c r="G47" s="6">
-        <v>814100</v>
-      </c>
-      <c r="I47" s="5">
-        <v>10</v>
-      </c>
-      <c r="J47" s="7">
-        <v>11</v>
-      </c>
-      <c r="K47" s="8">
-        <v>1628500</v>
-      </c>
-      <c r="L47" s="9">
-        <f>K48/K47</f>
-        <v>1.2</v>
-      </c>
-      <c r="M47" s="10">
-        <v>10</v>
-      </c>
-      <c r="N47" s="7">
-        <v>11</v>
-      </c>
-      <c r="O47" s="11">
-        <v>2714000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="5">
-        <v>11</v>
-      </c>
-      <c r="B48">
+      <c r="B54">
+        <v>100000</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58">
+        <v>80</v>
+      </c>
+      <c r="C58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59">
         <v>12</v>
       </c>
-      <c r="C48" s="6">
-        <v>325700</v>
-      </c>
-      <c r="E48" s="5">
-        <v>11</v>
-      </c>
-      <c r="F48" s="7">
-        <v>12</v>
-      </c>
-      <c r="G48" s="12">
-        <v>977100</v>
-      </c>
-      <c r="I48" s="10">
-        <v>11</v>
-      </c>
-      <c r="J48" s="7">
-        <v>12</v>
-      </c>
-      <c r="K48" s="8">
-        <v>1954200</v>
-      </c>
-      <c r="L48" s="9">
-        <f t="shared" ref="L48:L56" si="1">K49/K48</f>
-        <v>1.1999795312659911</v>
-      </c>
-      <c r="M48" s="10">
-        <v>11</v>
-      </c>
-      <c r="N48" s="7">
-        <v>12</v>
-      </c>
-      <c r="O48" s="11">
-        <v>3256800</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="5">
-        <v>12</v>
-      </c>
-      <c r="B49">
-        <v>13</v>
-      </c>
-      <c r="C49" s="6">
-        <v>390800</v>
-      </c>
-      <c r="E49" s="10">
-        <v>12</v>
-      </c>
-      <c r="F49" s="7">
-        <v>13</v>
-      </c>
-      <c r="G49" s="12">
-        <v>1172500</v>
-      </c>
-      <c r="I49" s="10">
-        <v>12</v>
-      </c>
-      <c r="J49" s="7">
-        <v>13</v>
-      </c>
-      <c r="K49" s="8">
-        <v>2345000</v>
-      </c>
-      <c r="L49" s="9">
-        <f t="shared" si="1"/>
-        <v>1.2</v>
-      </c>
-      <c r="M49" s="10">
-        <v>12</v>
-      </c>
-      <c r="N49" s="7">
-        <v>13</v>
-      </c>
-      <c r="O49" s="13">
-        <v>3908200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="5">
-        <v>13</v>
-      </c>
-      <c r="B50">
-        <v>14</v>
-      </c>
-      <c r="C50" s="6">
-        <v>469000</v>
-      </c>
-      <c r="E50" s="10">
-        <v>13</v>
-      </c>
-      <c r="F50" s="7">
-        <v>14</v>
-      </c>
-      <c r="G50" s="12">
-        <v>1407000</v>
-      </c>
-      <c r="I50" s="10">
-        <v>13</v>
-      </c>
-      <c r="J50" s="7">
-        <v>14</v>
-      </c>
-      <c r="K50" s="11">
-        <v>2814000</v>
-      </c>
-      <c r="L50" s="9">
-        <f t="shared" si="1"/>
-        <v>1.2</v>
-      </c>
-      <c r="M50" s="10">
-        <v>13</v>
-      </c>
-      <c r="N50" s="7">
-        <v>14</v>
-      </c>
-      <c r="O50" s="14">
-        <v>4689800</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="5">
-        <v>14</v>
-      </c>
-      <c r="B51">
-        <v>15</v>
-      </c>
-      <c r="C51" s="6">
-        <v>562800</v>
-      </c>
-      <c r="E51" s="10">
-        <v>14</v>
-      </c>
-      <c r="F51" s="7">
-        <v>15</v>
-      </c>
-      <c r="G51" s="8">
-        <v>1688400</v>
-      </c>
-      <c r="I51" s="10">
-        <v>14</v>
-      </c>
-      <c r="J51" s="7">
-        <v>15</v>
-      </c>
-      <c r="K51" s="11">
-        <v>3376800</v>
-      </c>
-      <c r="L51" s="9">
-        <f t="shared" si="1"/>
-        <v>1.2000118455342337</v>
-      </c>
-      <c r="M51" s="10">
-        <v>14</v>
-      </c>
-      <c r="N51" s="7">
-        <v>15</v>
-      </c>
-      <c r="O51" s="15">
-        <v>5627800</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="5">
-        <v>15</v>
-      </c>
-      <c r="B52">
-        <v>16</v>
-      </c>
-      <c r="C52" s="6">
-        <v>675400</v>
-      </c>
-      <c r="E52" s="10">
-        <v>15</v>
-      </c>
-      <c r="F52" s="7">
-        <v>16</v>
-      </c>
-      <c r="G52" s="8">
-        <v>2026100</v>
-      </c>
-      <c r="H52" s="9">
-        <f>G53/G52</f>
-        <v>1.1999901288189132</v>
-      </c>
-      <c r="I52" s="10">
-        <v>15</v>
-      </c>
-      <c r="J52" s="7">
-        <v>16</v>
-      </c>
-      <c r="K52" s="13">
-        <v>4052200</v>
-      </c>
-      <c r="L52" s="9">
-        <f t="shared" si="1"/>
-        <v>1.1999901288189132</v>
-      </c>
-      <c r="M52" s="10">
-        <v>15</v>
-      </c>
-      <c r="N52" s="7">
-        <v>16</v>
-      </c>
-      <c r="O52" s="15">
-        <v>6753400</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="5">
-        <v>16</v>
-      </c>
-      <c r="B53">
-        <v>17</v>
-      </c>
-      <c r="C53" s="6">
-        <v>810500</v>
-      </c>
-      <c r="E53" s="10">
-        <v>16</v>
-      </c>
-      <c r="F53" s="7">
-        <v>17</v>
-      </c>
-      <c r="G53" s="8">
-        <v>2431300</v>
-      </c>
-      <c r="H53" s="9">
-        <f t="shared" ref="H53:H56" si="2">G54/G53</f>
-        <v>1.2000164521038128</v>
-      </c>
-      <c r="I53" s="10">
-        <v>16</v>
-      </c>
-      <c r="J53" s="7">
-        <v>17</v>
-      </c>
-      <c r="K53" s="14">
-        <v>4862600</v>
-      </c>
-      <c r="L53" s="9">
-        <f t="shared" si="1"/>
-        <v>1.1999958869740468</v>
-      </c>
-      <c r="M53" s="10">
-        <v>16</v>
-      </c>
-      <c r="N53" s="7">
-        <v>17</v>
-      </c>
-      <c r="O53" s="16">
-        <v>8104100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="5">
-        <v>17</v>
-      </c>
-      <c r="B54">
-        <v>18</v>
-      </c>
-      <c r="C54" s="12">
-        <v>972600</v>
-      </c>
-      <c r="E54" s="10">
-        <v>17</v>
-      </c>
-      <c r="F54" s="7">
-        <v>18</v>
-      </c>
-      <c r="G54" s="11">
-        <v>2917600</v>
-      </c>
-      <c r="H54" s="9">
-        <f t="shared" si="2"/>
-        <v>1.1999931450507266</v>
-      </c>
-      <c r="I54" s="10">
-        <v>17</v>
-      </c>
-      <c r="J54" s="7">
-        <v>18</v>
-      </c>
-      <c r="K54" s="15">
-        <v>5835100</v>
-      </c>
-      <c r="L54" s="9">
-        <f t="shared" si="1"/>
-        <v>1.1999965724666244</v>
-      </c>
-      <c r="M54" s="10">
-        <v>17</v>
-      </c>
-      <c r="N54" s="7">
-        <v>18</v>
-      </c>
-      <c r="O54" s="16">
-        <v>9724900</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="5">
-        <v>18</v>
-      </c>
-      <c r="B55">
-        <v>19</v>
-      </c>
-      <c r="C55" s="12">
-        <v>1167100</v>
-      </c>
-      <c r="E55" s="10">
-        <v>18</v>
-      </c>
-      <c r="F55" s="7">
-        <v>19</v>
-      </c>
-      <c r="G55" s="13">
-        <v>3501100</v>
-      </c>
-      <c r="H55" s="9">
-        <f t="shared" si="2"/>
-        <v>1.1999942875096399</v>
-      </c>
-      <c r="I55" s="10">
-        <v>18</v>
-      </c>
-      <c r="J55" s="7">
-        <v>19</v>
-      </c>
-      <c r="K55" s="16">
-        <v>7002100</v>
-      </c>
-      <c r="L55" s="9">
-        <f t="shared" si="1"/>
-        <v>1.1999971437140287</v>
-      </c>
-      <c r="M55" s="7">
-        <v>18</v>
-      </c>
-      <c r="N55" s="7">
-        <v>19</v>
-      </c>
-      <c r="O55" s="16">
-        <v>11669900</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="5">
-        <v>19</v>
-      </c>
-      <c r="B56">
-        <v>20</v>
-      </c>
-      <c r="C56" s="8">
-        <v>1400500</v>
-      </c>
-      <c r="E56" s="10">
-        <v>19</v>
-      </c>
-      <c r="F56" s="7">
-        <v>20</v>
-      </c>
-      <c r="G56" s="14">
-        <v>4201300</v>
-      </c>
-      <c r="H56" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="10">
-        <v>19</v>
-      </c>
-      <c r="J56" s="7">
-        <v>20</v>
-      </c>
-      <c r="K56" s="16">
-        <v>8402500</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M56" s="7">
-        <v>19</v>
-      </c>
-      <c r="N56" s="7">
-        <v>20</v>
-      </c>
-      <c r="O56" s="16">
-        <v>14003900</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="5">
-        <v>20</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="E57" s="10">
-        <v>20</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="I57" s="10">
-        <v>20</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="M57" s="10">
-        <v>20</v>
-      </c>
-      <c r="O57" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+      <c r="C59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="G60" s="18"/>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:9">
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:9">
       <c r="G64" s="6"/>
     </row>
   </sheetData>
@@ -2597,258 +2929,782 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E7EA21-90CD-9042-BC82-85C9800A6A40}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView showGridLines="0" zoomScale="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="35"/>
+      <c r="B1" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19" customHeight="1">
+      <c r="A2" s="27"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="21">
+        <f>SUM(C3:G3)</f>
+        <v>225074</v>
+      </c>
+      <c r="C3" s="22">
+        <v>75026</v>
+      </c>
+      <c r="D3" s="22">
+        <v>47456</v>
+      </c>
+      <c r="E3" s="30">
+        <v>14704</v>
+      </c>
+      <c r="F3" s="30">
+        <v>51464</v>
+      </c>
+      <c r="G3" s="30">
+        <v>36424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="21">
+        <f t="shared" ref="B4:B25" si="0">SUM(C4:G4)</f>
+        <v>93647</v>
+      </c>
+      <c r="C4" s="22">
+        <v>22056</v>
+      </c>
+      <c r="D4" s="22">
+        <v>6342</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30">
+        <v>47788</v>
+      </c>
+      <c r="G4" s="30">
+        <v>17461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="21">
+        <f>SUM(C5:G5,C6:G6)</f>
+        <v>188255</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22">
+        <v>31400</v>
+      </c>
+      <c r="E5" s="30">
+        <v>18954</v>
+      </c>
+      <c r="F5" s="30">
+        <v>43020</v>
+      </c>
+      <c r="G5" s="30">
+        <v>27396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22">
+        <v>16742</v>
+      </c>
+      <c r="E6" s="30">
+        <v>13762</v>
+      </c>
+      <c r="F6" s="30">
+        <v>21655</v>
+      </c>
+      <c r="G6" s="30">
+        <v>15326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="21">
+        <f t="shared" si="0"/>
+        <v>115755</v>
+      </c>
+      <c r="C7" s="22">
+        <v>49394</v>
+      </c>
+      <c r="D7" s="22">
+        <v>14761</v>
+      </c>
+      <c r="E7" s="30">
+        <v>5348</v>
+      </c>
+      <c r="F7" s="30">
+        <v>23439</v>
+      </c>
+      <c r="G7" s="30">
+        <v>22813</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="21">
+        <f t="shared" si="0"/>
+        <v>209209</v>
+      </c>
+      <c r="C8" s="22">
+        <v>57165</v>
+      </c>
+      <c r="D8" s="22">
+        <v>60780</v>
+      </c>
+      <c r="E8" s="30">
+        <v>7529</v>
+      </c>
+      <c r="F8" s="30">
+        <v>54881</v>
+      </c>
+      <c r="G8" s="30">
+        <v>28854</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="21">
+        <f t="shared" si="0"/>
+        <v>90534</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22">
+        <v>16008</v>
+      </c>
+      <c r="E9" s="30">
+        <v>10282</v>
+      </c>
+      <c r="F9" s="30">
+        <v>40092</v>
+      </c>
+      <c r="G9" s="30">
+        <v>24152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="21">
+        <f t="shared" si="0"/>
+        <v>108946</v>
+      </c>
+      <c r="C10" s="22">
+        <v>40199</v>
+      </c>
+      <c r="D10" s="22">
+        <v>25474</v>
+      </c>
+      <c r="E10" s="30">
+        <v>10336</v>
+      </c>
+      <c r="F10" s="30">
+        <v>30613</v>
+      </c>
+      <c r="G10" s="30">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="21">
+        <f t="shared" si="0"/>
+        <v>92654</v>
+      </c>
+      <c r="C11" s="22">
+        <v>37708</v>
+      </c>
+      <c r="D11" s="22">
+        <v>8919</v>
+      </c>
+      <c r="E11" s="30">
+        <v>6230</v>
+      </c>
+      <c r="F11" s="30">
+        <v>18513</v>
+      </c>
+      <c r="G11" s="30">
+        <v>21284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="21">
+        <f t="shared" si="0"/>
+        <v>173209</v>
+      </c>
+      <c r="C12" s="22">
+        <v>52175</v>
+      </c>
+      <c r="D12" s="22">
+        <v>35401</v>
+      </c>
+      <c r="E12" s="30">
+        <v>13172</v>
+      </c>
+      <c r="F12" s="30">
+        <v>44565</v>
+      </c>
+      <c r="G12" s="30">
+        <v>27896</v>
+      </c>
+      <c r="H12" s="30"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="21">
+        <f t="shared" si="0"/>
+        <v>137153</v>
+      </c>
+      <c r="C13" s="22">
+        <v>35387</v>
+      </c>
+      <c r="D13" s="22">
+        <v>34342</v>
+      </c>
+      <c r="E13" s="30">
+        <v>11924</v>
+      </c>
+      <c r="F13" s="30">
+        <v>39024</v>
+      </c>
+      <c r="G13" s="30">
+        <v>16476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="21">
+        <f t="shared" si="0"/>
+        <v>87954</v>
+      </c>
+      <c r="C14" s="22">
+        <v>47560</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="30">
+        <v>10061</v>
+      </c>
+      <c r="F14" s="30">
+        <v>1821</v>
+      </c>
+      <c r="G14" s="30">
+        <v>28512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="21">
+        <f t="shared" si="0"/>
+        <v>181757</v>
+      </c>
+      <c r="C15" s="22">
+        <v>57597</v>
+      </c>
+      <c r="D15" s="22">
+        <v>27398</v>
+      </c>
+      <c r="E15" s="30">
+        <v>19395</v>
+      </c>
+      <c r="F15" s="30">
+        <v>42502</v>
+      </c>
+      <c r="G15" s="30">
+        <v>34865</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="21">
+        <f t="shared" si="0"/>
+        <v>193207</v>
+      </c>
+      <c r="C16" s="22">
+        <v>55976</v>
+      </c>
+      <c r="D16" s="22">
+        <v>49241</v>
+      </c>
+      <c r="E16" s="30">
+        <v>11876</v>
+      </c>
+      <c r="F16" s="30">
+        <v>45162</v>
+      </c>
+      <c r="G16" s="30">
+        <v>30952</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="21">
+        <f t="shared" si="0"/>
+        <v>187948</v>
+      </c>
+      <c r="C17" s="22">
+        <v>50162</v>
+      </c>
+      <c r="D17" s="22">
+        <v>54223</v>
+      </c>
+      <c r="E17" s="30">
+        <v>9200</v>
+      </c>
+      <c r="F17" s="30">
+        <v>44394</v>
+      </c>
+      <c r="G17" s="30">
+        <v>29969</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="21">
+        <f t="shared" si="0"/>
+        <v>104549</v>
+      </c>
+      <c r="C18" s="22">
+        <v>51003</v>
+      </c>
+      <c r="D18" s="22">
+        <v>28064</v>
+      </c>
+      <c r="E18" s="30">
+        <v>5658</v>
+      </c>
+      <c r="F18" s="30">
+        <v>19824</v>
+      </c>
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="21">
+        <f t="shared" si="0"/>
+        <v>62557</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22">
+        <v>25458</v>
+      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30">
+        <v>17460</v>
+      </c>
+      <c r="G19" s="30">
+        <v>19639</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="21">
+        <f t="shared" si="0"/>
+        <v>151245</v>
+      </c>
+      <c r="C20" s="22">
+        <v>1120</v>
+      </c>
+      <c r="D20" s="22">
+        <v>70555</v>
+      </c>
+      <c r="E20" s="30">
+        <v>6948</v>
+      </c>
+      <c r="F20" s="30">
+        <v>41072</v>
+      </c>
+      <c r="G20" s="30">
+        <v>31550</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="21">
+        <f t="shared" si="0"/>
+        <v>185705</v>
+      </c>
+      <c r="C21" s="22">
+        <v>56333</v>
+      </c>
+      <c r="D21" s="22">
+        <v>43079</v>
+      </c>
+      <c r="E21" s="30">
+        <v>19813</v>
+      </c>
+      <c r="F21" s="30">
+        <v>46317</v>
+      </c>
+      <c r="G21" s="30">
+        <v>20163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="21">
+        <f t="shared" si="0"/>
+        <v>138902</v>
+      </c>
+      <c r="C22" s="22">
+        <v>46480</v>
+      </c>
+      <c r="D22" s="22">
+        <v>20225</v>
+      </c>
+      <c r="E22" s="30">
+        <v>4854</v>
+      </c>
+      <c r="F22" s="30">
+        <v>44495</v>
+      </c>
+      <c r="G22" s="30">
+        <v>22848</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="21">
+        <f t="shared" si="0"/>
+        <v>60547</v>
+      </c>
+      <c r="C23" s="22">
+        <v>35271</v>
+      </c>
+      <c r="D23" s="22">
+        <v>12300</v>
+      </c>
+      <c r="E23" s="30">
+        <v>8240</v>
+      </c>
+      <c r="F23" s="30">
+        <v>4736</v>
+      </c>
+      <c r="G23" s="30"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="21">
+        <f t="shared" si="0"/>
+        <v>120624</v>
+      </c>
+      <c r="C24" s="22">
+        <v>55880</v>
+      </c>
+      <c r="D24" s="22">
+        <v>26302</v>
+      </c>
+      <c r="E24" s="30">
+        <v>6070</v>
+      </c>
+      <c r="F24" s="30">
+        <v>32372</v>
+      </c>
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="1:7" ht="17" thickBot="1">
+      <c r="A25" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="21">
+        <f t="shared" si="0"/>
+        <v>106639</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33">
+        <v>35927</v>
+      </c>
+      <c r="E25" s="34">
+        <v>21133</v>
+      </c>
+      <c r="F25" s="30">
+        <v>20725</v>
+      </c>
+      <c r="G25" s="30">
+        <v>28854</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17" thickBot="1"/>
+    <row r="27" spans="1:7">
+      <c r="A27" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25">
+        <f>COUNTIF(C3:C25,"&gt;1")</f>
+        <v>18</v>
+      </c>
+      <c r="D27" s="25">
+        <f>COUNTIF(D3:D25,"&gt;1")</f>
+        <v>22</v>
+      </c>
+      <c r="E27" s="26">
+        <f>COUNTIF(E3:E25,"&gt;1")</f>
+        <v>21</v>
+      </c>
+      <c r="F27" s="26">
+        <f t="shared" ref="F27:G27" si="1">COUNTIF(F3:F25,"&gt;1")</f>
+        <v>23</v>
+      </c>
+      <c r="G27" s="26">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23">
+        <f>C27/23</f>
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="D28" s="23">
+        <f>D27/23</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="E28" s="28">
+        <f>E27/23</f>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="F28" s="28">
+        <f t="shared" ref="F28:G28" si="2">F27/23</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="28">
+        <f t="shared" si="2"/>
+        <v>0.86956521739130432</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="27" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20" t="str">
+        <f>INDEX($A$3:$A$25,MATCH(MAX(C3:C25),C3:C25,0))</f>
+        <v>mv007</v>
+      </c>
+      <c r="D29" s="20" t="str">
+        <f t="shared" ref="D29:G29" si="3">INDEX($A$3:$A$25,MATCH(MAX(D3:D25),D3:D25,0))</f>
+        <v>放牛</v>
+      </c>
+      <c r="E29" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>威武</v>
+      </c>
+      <c r="F29" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>翼</v>
+      </c>
+      <c r="G29" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>mv007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="22">
+        <f>MAX(C3:C25)</f>
         <v>75026</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4">
-        <v>22056</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7">
-        <v>49394</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8">
-        <v>57165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10">
-        <v>40199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11">
-        <v>37708</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12">
-        <v>52175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13">
-        <v>35387</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14">
-        <v>47560</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15">
-        <v>57597</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16">
-        <v>55976</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17">
-        <v>50162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18">
-        <v>51003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20">
+      <c r="D30" s="22">
+        <f>MAX(D3:D25)</f>
+        <v>70555</v>
+      </c>
+      <c r="E30" s="30">
+        <f>MAX(E3:E25)</f>
+        <v>21133</v>
+      </c>
+      <c r="F30" s="30">
+        <f t="shared" ref="F30:G30" si="4">MAX(F3:F25)</f>
+        <v>54881</v>
+      </c>
+      <c r="G30" s="30">
+        <f t="shared" si="4"/>
+        <v>36424</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="22">
+        <f>MIN(C3:C25)</f>
         <v>1120</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21">
-        <v>56333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22">
-        <v>46480</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23">
-        <v>35271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24">
-        <v>55880</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28">
-        <f>COUNTIF(B3:B24,"&gt;1")</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+      <c r="D31" s="22">
+        <f>MIN(D3:D25)</f>
+        <v>6342</v>
+      </c>
+      <c r="E31" s="30">
+        <f>MIN(E3:E25)</f>
+        <v>4854</v>
+      </c>
+      <c r="F31" s="30">
+        <f t="shared" ref="F31:G31" si="5">MIN(F3:F25)</f>
+        <v>1821</v>
+      </c>
+      <c r="G31" s="30">
+        <f t="shared" si="5"/>
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="20">
-        <f>B28/22</f>
-        <v>0.81818181818181823</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="22">
+        <f>SUM(C3:C25)/C27</f>
+        <v>45916.222222222219</v>
+      </c>
+      <c r="D32" s="22">
+        <f t="shared" ref="D32:G32" si="6">SUM(D3:D25)/D27</f>
+        <v>31381.68181818182</v>
+      </c>
+      <c r="E32" s="22">
+        <f t="shared" si="6"/>
+        <v>11213.761904761905</v>
+      </c>
+      <c r="F32" s="22">
+        <f t="shared" si="6"/>
+        <v>33736.260869565216</v>
+      </c>
+      <c r="G32" s="22">
+        <f t="shared" si="6"/>
+        <v>24387.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17" thickBot="1">
+      <c r="A33" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B30" t="str">
-        <f>INDEX(A3:A24,MATCH(MAX(B3:B24),B3:B24,0))</f>
-        <v>mv007</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31">
-        <f>MAX(B3:B24)</f>
-        <v>75026</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32">
-        <f>MIN(B3:B24)</f>
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33">
-        <f>(B31+B32)/B28</f>
-        <v>4230.333333333333</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34">
-        <f>MEDIAN(B3:B24)</f>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33">
+        <f>MEDIAN(C3:C25)</f>
         <v>49778</v>
+      </c>
+      <c r="D33" s="33">
+        <f>MEDIAN(D3:D25)</f>
+        <v>27731</v>
+      </c>
+      <c r="E33" s="34">
+        <f>MEDIAN(E3:E25)</f>
+        <v>10282</v>
+      </c>
+      <c r="F33" s="34">
+        <f t="shared" ref="F33:G33" si="7">MEDIAN(F3:F25)</f>
+        <v>40092</v>
+      </c>
+      <c r="G33" s="34">
+        <f t="shared" si="7"/>
+        <v>25774</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B3:B24">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="B3:B25">
+    <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2860,14 +3716,210 @@
         </ext>
       </extLst>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C25">
+    <cfRule type="dataBar" priority="32">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B79DD3FD-4899-B344-8D68-EBFC5D7F53B9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D25">
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B19FF62B-799A-504B-A257-4E7DCC0D33BD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E25">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CFFC8883-ADE1-8840-9462-1DE2AA7F57F8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C25">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="num" val="$C$31"/>
+        <cfvo type="num" val="$C$33"/>
+        <cfvo type="num" val="$C$30"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D25">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="num" val="$D$31"/>
+        <cfvo type="num" val="$D$33"/>
+        <cfvo type="num" val="$D$30"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E25">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="num" val="$E$31"/>
+        <cfvo type="num" val="$E$33"/>
+        <cfvo type="num" val="$E$30"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F25">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{10943309-06BC-CC4B-A875-E7BFD9086CBE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="num" val="$F$31"/>
+        <cfvo type="num" val="$F$33"/>
+        <cfvo type="num" val="$F$30"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G25">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F6BA219E-1FF8-134B-94D3-539A43077F11}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G25">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="num" val="$G$31"/>
+        <cfvo type="num" val="$G$33"/>
+        <cfvo type="num" val="$G$30"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EFB10CC4-48B8-454A-A909-EAB24D69D2F6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="$E$31"/>
+        <cfvo type="num" val="$E$33"/>
+        <cfvo type="num" val="$E$30"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F17 F19:F25">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CF5DD332-49BF-BD4C-A394-096AC217AC9D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F17 F19:F25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="num" val="$B$32"/>
-        <cfvo type="num" val="$B$34"/>
-        <cfvo type="num" val="$B$31"/>
+        <cfvo type="num" val="$F$31"/>
+        <cfvo type="num" val="$F$33"/>
+        <cfvo type="num" val="$F$30"/>
         <color rgb="FFFF7128"/>
         <color rgb="FFFFEB84"/>
-        <color theme="9" tint="0.39997558519241921"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7E91B48D-5A88-4648-9310-9F2B1B8F2AB9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="$F$31"/>
+        <cfvo type="num" val="$F$33"/>
+        <cfvo type="num" val="$F$30"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9" tint="0.79998168889431442"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -2886,7 +3938,111 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B3:B24</xm:sqref>
+          <xm:sqref>B3:B25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B79DD3FD-4899-B344-8D68-EBFC5D7F53B9}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C3:C25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B19FF62B-799A-504B-A257-4E7DCC0D33BD}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D3:D25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CFFC8883-ADE1-8840-9462-1DE2AA7F57F8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E3:E25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{10943309-06BC-CC4B-A875-E7BFD9086CBE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F3:F25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F6BA219E-1FF8-134B-94D3-539A43077F11}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G3:G25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EFB10CC4-48B8-454A-A909-EAB24D69D2F6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CF5DD332-49BF-BD4C-A394-096AC217AC9D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F4:F17 F19:F25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7E91B48D-5A88-4648-9310-9F2B1B8F2AB9}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F18</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/其他文件/basedata.xlsx
+++ b/其他文件/basedata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zn/IdeaProjects/MLofAndrew-Ng/其他文件/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA71CE5-B949-0144-8FF4-76022E7846AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794C9733-84C6-D741-8010-B47F72CA0CE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{FE7D1014-6C58-B248-A122-9F4E11D0E104}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
   <si>
     <t>cost</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -358,6 +359,14 @@
   </si>
   <si>
     <t>专精提供抗性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>having_posi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经拥有的病毒材料数量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1165,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A36B16-4397-DF48-B3CC-7ADDC49F6421}">
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2512,6 +2521,15 @@
       </c>
     </row>
     <row r="60" spans="1:9">
+      <c r="A60" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60">
+        <v>2500000</v>
+      </c>
+      <c r="C60" t="s">
+        <v>82</v>
+      </c>
       <c r="G60" s="18"/>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>

--- a/其他文件/basedata.xlsx
+++ b/其他文件/basedata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zn/IdeaProjects/MLofAndrew-Ng/其他文件/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794C9733-84C6-D741-8010-B47F72CA0CE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90B4653-A644-0B40-B8AD-BA88298E71F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{FE7D1014-6C58-B248-A122-9F4E11D0E104}"/>
+    <workbookView xWindow="880" yWindow="2480" windowWidth="25600" windowHeight="15540" xr2:uid="{FE7D1014-6C58-B248-A122-9F4E11D0E104}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
   <si>
     <t>cost</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -326,10 +325,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(20,18,14,12)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>factories</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -366,7 +361,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>已经拥有的病毒材料数量</t>
+    <t>已经有的病毒材料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grows_posi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每小时土地产出病毒材料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grows_iron</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每小时土地产出复合材料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron_dis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专精提供的复合材料减少消耗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>having_iron</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经拥有的复合材料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(20,19,16,13)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1172,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A36B16-4397-DF48-B3CC-7ADDC49F6421}">
-  <dimension ref="A1:T64"/>
+  <dimension ref="A1:T69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2481,66 +2512,121 @@
         <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" t="s">
         <v>73</v>
       </c>
-      <c r="B57" t="s">
-        <v>74</v>
-      </c>
       <c r="C57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B58">
         <v>80</v>
       </c>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
         <v>79</v>
-      </c>
-      <c r="B59">
-        <v>12</v>
-      </c>
-      <c r="C59" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60">
+        <v>1335027</v>
+      </c>
+      <c r="C60" t="s">
         <v>81</v>
-      </c>
-      <c r="B60">
-        <v>2500000</v>
-      </c>
-      <c r="C60" t="s">
-        <v>82</v>
       </c>
       <c r="G60" s="18"/>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
+      <c r="A61" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61">
+        <v>116932</v>
+      </c>
+      <c r="C61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G61" s="18"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62">
+        <v>136000</v>
+      </c>
+      <c r="C62" t="s">
+        <v>83</v>
+      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63">
+        <f>D69-B62</f>
+        <v>84650</v>
+      </c>
+      <c r="C63" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="G64" s="6"/>
+      <c r="A64" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="C64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7">
+      <c r="G65" s="6"/>
+    </row>
+    <row r="69" spans="3:7">
+      <c r="C69">
+        <f>B63+B62</f>
+        <v>220650</v>
+      </c>
+      <c r="D69">
+        <v>220650</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
